--- a/table.xlsx
+++ b/table.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_fe3\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Desktop\graph-matrix-and-combinatorics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{3451BDE9-B73F-4F3E-8E91-0AF9A24B78B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1F7A108-5B4B-4455-8159-17FCBCCAE8EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BCA70-AFC5-4960-8E28-E2078B9C5701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17070" yWindow="4350" windowWidth="11520" windowHeight="11715" xr2:uid="{7C542CF3-B18D-4437-9B2F-36698648B8C9}"/>
+    <workbookView xWindow="6390" yWindow="1890" windowWidth="16065" windowHeight="11715" xr2:uid="{7C542CF3-B18D-4437-9B2F-36698648B8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Interações" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>nodeout</t>
   </si>
@@ -62,52 +61,13 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>CCL5</t>
-  </si>
-  <si>
-    <t>IFNA1</t>
-  </si>
-  <si>
-    <t>IKBKE</t>
-  </si>
-  <si>
-    <t>IRAK3</t>
-  </si>
-  <si>
-    <t>IRF3</t>
-  </si>
-  <si>
-    <t>MDM2</t>
-  </si>
-  <si>
-    <t>miR-145</t>
-  </si>
-  <si>
-    <t>miR-155</t>
-  </si>
-  <si>
-    <t>miR-200</t>
-  </si>
-  <si>
-    <t>MYD88</t>
-  </si>
-  <si>
-    <t>OCT4</t>
-  </si>
-  <si>
-    <t>p53</t>
-  </si>
-  <si>
-    <t>ZEB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,15 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771B7FD1-0AAE-439C-99E6-01A8EC9A8732}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
@@ -518,7 +475,7 @@
     <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,101 +497,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="18" spans="6:6" ht="15">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6" ht="15">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6" ht="15">
-      <c r="F20" s="4"/>
-    </row>
-    <row r="24" spans="6:6" ht="15">
-      <c r="F24" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
@@ -644,87 +576,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCFB8C5-1101-49BC-893A-EB69F9262A2E}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A62">
-    <sortCondition ref="A22"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>